--- a/Data/MHV-1_Trial-1_Stage-1_Encoded_KWALDSTEIN_202010042110.xlsx
+++ b/Data/MHV-1_Trial-1_Stage-1_Encoded_KWALDSTEIN_202010042110.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26311"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirongyi/Dropbox/CS_Virus_Testing/Codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3FCE9E-D6CA-45A9-B30D-C854167EB6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -128,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -160,13 +170,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -178,6 +181,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,25 +211,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -260,7 +268,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6BC842-9F06-F64D-8701-A6118B663423}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6BC842-9F06-F64D-8701-A6118B663423}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -302,7 +310,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B82280-F90F-4C42-9178-80A95AFE29EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B82280-F90F-4C42-9178-80A95AFE29EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,22 +633,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M14" sqref="K1:M14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49:N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="17" max="18" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,20 +696,21 @@
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="N2" s="7"/>
       <c r="O2">
         <v>2200</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <v>11.69204044342041</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <v>11.67908763885498</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -709,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -721,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
@@ -733,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O9" si="0">O2/10</f>
@@ -745,14 +754,14 @@
       <c r="P3" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>15.036208152770996</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <v>14.994017601013184</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -760,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -772,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -784,9 +793,9 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.923999999999999</v>
-      </c>
-      <c r="N4" s="10">
+        <v>35.055999999999997</v>
+      </c>
+      <c r="N4" s="7">
         <v>34.826000000000001</v>
       </c>
       <c r="O4">
@@ -796,14 +805,14 @@
       <c r="P4" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <v>18.494695663452148</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>18.660854339599609</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -835,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>50</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
@@ -847,14 +856,14 @@
       <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <v>21.980190277099609</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
         <v>22.227424621582031</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>8</v>
       </c>
@@ -862,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
@@ -874,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -886,14 +895,14 @@
       <c r="P6" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>25.169233322143555</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>25.672189712524414</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -901,9 +910,9 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.204999999999998</v>
-      </c>
-      <c r="N7" s="10">
+        <v>34.073</v>
+      </c>
+      <c r="N7" s="7">
         <v>34.338000000000001</v>
       </c>
       <c r="O7">
@@ -913,14 +922,14 @@
       <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <v>28.617046356201172</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <v>29.041526794433594</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
@@ -937,14 +946,14 @@
       <c r="P8" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <v>32.118110656738281</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <v>32.647609710693359</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>2</v>
       </c>
@@ -952,12 +961,12 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,6 +976,7 @@
       <c r="M9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="N9" s="7"/>
       <c r="O9">
         <f t="shared" si="0"/>
         <v>2.2000000000000001E-4</v>
@@ -974,14 +984,14 @@
       <c r="P9" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="4">
         <v>35.239940643310547</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <v>34.919940948486328</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>3</v>
       </c>
@@ -994,7 +1004,7 @@
       <c r="I10" s="4">
         <v>16.557811737060547</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
       <c r="K10" t="s">
         <v>2</v>
       </c>
@@ -1002,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>4</v>
       </c>
@@ -1028,14 +1038,14 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
       <c r="F12" t="s">
         <v>8</v>
       </c>
@@ -1043,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
         <v>4</v>
@@ -1055,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.327999999999999</v>
-      </c>
-      <c r="N12" s="10">
-        <v>17.329999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>14.64</v>
+      </c>
+      <c r="N12" s="7">
+        <v>16.558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>8</v>
       </c>
@@ -1069,13 +1079,13 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.905999999999999</v>
-      </c>
-      <c r="N13" s="10">
-        <v>17.010000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>15.194000000000001</v>
+      </c>
+      <c r="N13" s="7">
+        <v>16.189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>2</v>
       </c>
@@ -1106,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>3</v>
       </c>
@@ -1134,8 +1144,9 @@
       <c r="M16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>4</v>
       </c>
@@ -1143,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
         <v>2</v>
@@ -1157,11 +1168,11 @@
       <c r="M17">
         <v>35.067999999999998</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="7">
         <v>34.234000000000002</v>
       </c>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>8</v>
       </c>
@@ -1169,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
         <v>3</v>
@@ -1183,11 +1194,11 @@
       <c r="M18" s="4">
         <v>35.106838226318359</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="8">
         <v>34.52618408203125</v>
       </c>
     </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>4</v>
       </c>
@@ -1195,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1214,17 +1225,17 @@
       <c r="K20" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9">
         <v>35.021000000000001</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="9">
         <v>34.697000000000003</v>
       </c>
     </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>2</v>
       </c>
@@ -1232,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
@@ -1243,14 +1254,14 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="9">
         <v>34.030999999999999</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="9">
         <v>34.122999999999998</v>
       </c>
     </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1275,7 @@
         <v>24.626974105834961</v>
       </c>
     </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>8</v>
       </c>
@@ -1295,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
@@ -1307,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>3</v>
       </c>
@@ -1323,15 +1334,15 @@
       <c r="M25" s="4">
         <v>29.01341438293457</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="8">
         <v>29.213663101196289</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1350,15 +1361,15 @@
       <c r="M26" s="4">
         <v>28.558956146240234</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="8">
         <v>28.589473724365234</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>2</v>
       </c>
@@ -1374,17 +1385,17 @@
       <c r="K27" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>3</v>
       </c>
@@ -1406,11 +1417,11 @@
       <c r="M28" s="4">
         <v>27.708808898925781</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="8">
         <v>27.552452087402344</v>
       </c>
     </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>4</v>
       </c>
@@ -1424,18 +1435,18 @@
         <v>16.782770156860352</v>
       </c>
     </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>8</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>12</v>
@@ -1447,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>2</v>
       </c>
@@ -1455,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="6:18" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1472,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="11:19" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>4</v>
       </c>
@@ -1486,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="11:19" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>8</v>
       </c>
@@ -1502,13 +1513,13 @@
       <c r="M34" s="4">
         <v>27.847663879394531</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="8">
         <v>27.760759353637695</v>
       </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="11:19" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>16</v>
       </c>
@@ -1518,13 +1529,13 @@
       <c r="M35" s="4">
         <v>27.942087173461914</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="8">
         <v>27.908224105834961</v>
       </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="37" spans="11:19" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
         <v>2</v>
       </c>
@@ -1545,11 +1556,11 @@
       <c r="M38" s="4">
         <v>20.642065048217773</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="8">
         <v>20.808782577514648</v>
       </c>
     </row>
-    <row r="39" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>3</v>
       </c>
@@ -1559,16 +1570,16 @@
       <c r="M39" s="4">
         <v>20.865821838378906</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="8">
         <v>20.904516220092773</v>
       </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="11:19" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>4</v>
       </c>
@@ -1578,16 +1589,16 @@
       <c r="M40" s="4">
         <v>20.762340545654297</v>
       </c>
-      <c r="N40" s="4">
-        <v>20.702713012695312</v>
-      </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="11:19" x14ac:dyDescent="0.2">
+      <c r="N40" s="8">
+        <v>20.702713012695313</v>
+      </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>8</v>
       </c>
@@ -1597,11 +1608,11 @@
       <c r="M41" s="4">
         <v>20.590030670166016</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="8">
         <v>20.795053482055664</v>
       </c>
     </row>
-    <row r="42" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>16</v>
       </c>
@@ -1611,11 +1622,11 @@
       <c r="M42" s="4">
         <v>21.079845428466797</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="8">
         <v>21.092475891113281</v>
       </c>
     </row>
-    <row r="44" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>2</v>
       </c>
@@ -1636,31 +1647,31 @@
       <c r="M45" s="4">
         <v>16.849727630615234</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="8">
         <v>16.442787170410156</v>
       </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="11:19" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
         <v>3</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" s="9">
-        <v>0</v>
-      </c>
-      <c r="N46" s="9">
-        <v>0</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="11:19" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46">
+        <v>50</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K47" t="s">
         <v>4</v>
       </c>
@@ -1670,69 +1681,69 @@
       <c r="M47" s="4">
         <v>16.708595275878906</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="8">
         <v>16.835700988769531</v>
       </c>
     </row>
-    <row r="48" spans="11:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
         <v>8</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" s="9">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>50</v>
+      </c>
+      <c r="N48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
         <v>16</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" s="9">
-        <v>0</v>
-      </c>
-      <c r="N49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>50</v>
+      </c>
+      <c r="N49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -1740,6 +1751,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>